--- a/authors.xlsx
+++ b/authors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="178">
   <si>
     <t>Id</t>
   </si>
@@ -546,15 +546,6 @@
   </si>
   <si>
     <t>boyle.willy@example.net</t>
-  </si>
-  <si>
-    <t>lola</t>
-  </si>
-  <si>
-    <t>Para</t>
-  </si>
-  <si>
-    <t>lizzykitten</t>
   </si>
 </sst>
 </file>
@@ -602,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1635,23 +1626,6 @@
         <v>43254.0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" t="s">
-        <v>180</v>
-      </c>
-      <c r="E61" t="n" s="1">
-        <v>36096.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
